--- a/solaire.xlsx
+++ b/solaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\solaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B577E875-4AC5-468F-A1E2-180D78B91013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE4668-8DF7-4151-B577-5A654B273DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="604" firstSheet="1" activeTab="3" xr2:uid="{2A6A5F1A-CF4D-46AB-B585-C345C978459E}"/>
+    <workbookView xWindow="1245" yWindow="660" windowWidth="19665" windowHeight="12060" tabRatio="604" xr2:uid="{2A6A5F1A-CF4D-46AB-B585-C345C978459E}"/>
   </bookViews>
   <sheets>
     <sheet name="Solaire" sheetId="2" r:id="rId1"/>
@@ -25,8 +25,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="2" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2278,7 +2278,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2338,6 +2338,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2350,24 +2362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="2" builtinId="3"/>
@@ -2375,399 +2369,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DCF059CB-113B-4ACF-B5B1-5522BE8EEA8E}"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2891,6 +2492,399 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -5423,7 +5417,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-8EB3-46F2-A341-EC8E9FBCCF0D}"/>
                   </c:ext>
@@ -5681,7 +5675,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8EB3-46F2-A341-EC8E9FBCCF0D}"/>
                   </c:ext>
@@ -5939,7 +5933,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-8EB3-46F2-A341-EC8E9FBCCF0D}"/>
                   </c:ext>
@@ -6727,10 +6721,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8543,7 +8533,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A740044-D691-4285-B547-78CB58BCDBDB}" name="Tableau croisé dynamique23" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A740044-D691-4285-B547-78CB58BCDBDB}" name="Tableau croisé dynamique23" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B119" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -8967,7 +8957,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3AD6B23-C6F8-4F10-BE73-1F6959333391}" name="Tableau croisé dynamique59" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3AD6B23-C6F8-4F10-BE73-1F6959333391}" name="Tableau croisé dynamique59" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -9056,31 +9046,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABD1DBA2-C5D1-4DFD-A09A-DBED4FBCABC0}" name="Tableau3" displayName="Tableau3" ref="A1:M32" totalsRowCount="1" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABD1DBA2-C5D1-4DFD-A09A-DBED4FBCABC0}" name="Tableau3" displayName="Tableau3" ref="A1:M32" totalsRowCount="1" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="A1:M31" xr:uid="{ABD1DBA2-C5D1-4DFD-A09A-DBED4FBCABC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1402C817-389C-47E5-9525-1FE367B5BE5B}" name="ID" totalsRowLabel="Somme" dataDxfId="23" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{12A53543-653E-4301-AF92-1FB38E0CCDC8}" name="Secteur" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{E3F87025-88C9-4A10-B215-5A6C53ECCDBE}" name="Consommation" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{E4F8AFB2-9BD4-4706-A283-47EEDA29601A}" name="Date" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{70931ACD-4BC9-44BC-8051-95E5F8B89EC0}" name="Heure" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{0679E981-F6BF-411A-88BA-F812980C7491}" name="Itération" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{02F9A2AF-8E5D-458C-B89D-644EC6E53CBC}" name="Jour" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{1402C817-389C-47E5-9525-1FE367B5BE5B}" name="ID" totalsRowLabel="Somme" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{12A53543-653E-4301-AF92-1FB38E0CCDC8}" name="Secteur" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{E3F87025-88C9-4A10-B215-5A6C53ECCDBE}" name="Consommation" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{E4F8AFB2-9BD4-4706-A283-47EEDA29601A}" name="Date" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{70931ACD-4BC9-44BC-8051-95E5F8B89EC0}" name="Heure" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{0679E981-F6BF-411A-88BA-F812980C7491}" name="Itération" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{02F9A2AF-8E5D-458C-B89D-644EC6E53CBC}" name="Jour" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>CHOOSE(WEEKDAY(D2), "Dimanche", "Lundi", "Mardi", "Mercredi", "Jeudi", "Vendredi", "Samedi")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{33E94E5F-B4CC-4951-A186-2E5522C807AE}" name="Dichotomie" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5" dataCellStyle="Milliers"/>
-    <tableColumn id="9" xr3:uid="{013C2762-2C5A-4C10-8854-C6E3C73E52F2}" name="Difference" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{33E94E5F-B4CC-4951-A186-2E5522C807AE}" name="Dichotomie" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Milliers"/>
+    <tableColumn id="9" xr3:uid="{013C2762-2C5A-4C10-8854-C6E3C73E52F2}" name="Difference" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>ABS(Tableau3[[#This Row],[Itération]]-Tableau3[[#This Row],[Dichotomie]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DABB7477-4B7D-4832-9E93-EEDFAAA05467}" name="Mirindra" totalsRowFunction="sum" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{1A04E05D-31BC-48E2-A9A3-65D19120B3FC}" name="Difference2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{DABB7477-4B7D-4832-9E93-EEDFAAA05467}" name="Mirindra" totalsRowFunction="sum" totalsRowDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{1A04E05D-31BC-48E2-A9A3-65D19120B3FC}" name="Difference2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>ABS(Tableau3[[#This Row],[Dichotomie]]-Tableau3[[#This Row],[Mirindra]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{54D3D696-9FAA-4DEB-840C-F1BD689ED774}" name="Mamisoa" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{71C0B63D-6CC8-472D-ACD2-C565E714402F}" name="Difference3" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{54D3D696-9FAA-4DEB-840C-F1BD689ED774}" name="Mamisoa" totalsRowDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{71C0B63D-6CC8-472D-ACD2-C565E714402F}" name="Difference3" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>ABS(Tableau3[[#This Row],[Mamisoa]]-Tableau3[[#This Row],[Dichotomie]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9089,19 +9079,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1598E713-76D2-4FC2-BB70-CCF9FE87D416}" name="Tableau2" displayName="Tableau2" ref="A1:G151" totalsRowShown="0" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1598E713-76D2-4FC2-BB70-CCF9FE87D416}" name="Tableau2" displayName="Tableau2" ref="A1:G151" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G151" xr:uid="{1598E713-76D2-4FC2-BB70-CCF9FE87D416}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G151">
     <sortCondition ref="C1:C151"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AC4D0979-7691-4D72-9ADC-69380E1216B4}" name="ID" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{EC355080-F14E-4ED4-A940-ECB526D1899A}" name="Salle" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{7EE702F8-0FD5-402F-A379-0BB5F4172741}" name="Date" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{F69B1D56-94D0-4DAD-A1C8-5D2BD99D9DD0}" name="Debut" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{31EFA2CE-AFA3-4787-B0BD-BF62EECBB2A0}" name="Fin" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{E345EBCB-43E6-4D3F-863B-2C5ECE40324E}" name="Nombre" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{024DD059-21C5-4129-808F-BCD26EA102F3}" name="Jour" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{AC4D0979-7691-4D72-9ADC-69380E1216B4}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EC355080-F14E-4ED4-A940-ECB526D1899A}" name="Salle" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7EE702F8-0FD5-402F-A379-0BB5F4172741}" name="Date" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F69B1D56-94D0-4DAD-A1C8-5D2BD99D9DD0}" name="Debut" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{31EFA2CE-AFA3-4787-B0BD-BF62EECBB2A0}" name="Fin" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E345EBCB-43E6-4D3F-863B-2C5ECE40324E}" name="Nombre" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{024DD059-21C5-4129-808F-BCD26EA102F3}" name="Jour" dataDxfId="0">
       <calculatedColumnFormula>CHOOSE(WEEKDAY(C2), "Dimanche", "Lundi", "Mardi", "Mercredi", "Jeudi", "Vendredi", "Samedi")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9408,8 +9398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05338A35-F24F-43B4-8035-5EAA1EDEC964}">
   <dimension ref="A2:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -9418,22 +9408,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="F2" s="54" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="F2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="J2" s="54" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="J2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="O2" s="6" t="s">
         <v>34</v>
       </c>
@@ -9573,7 +9563,7 @@
       <c r="F8">
         <v>606</v>
       </c>
-      <c r="G8" s="62"/>
+      <c r="G8" s="54"/>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
@@ -9614,10 +9604,10 @@
       <c r="Q12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="59">
+      <c r="R12" s="40">
         <v>275</v>
       </c>
-      <c r="S12" s="60">
+      <c r="S12" s="1">
         <v>207</v>
       </c>
       <c r="T12" s="1">
@@ -9626,7 +9616,7 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="B13" s="58"/>
+      <c r="B13" s="9"/>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9640,16 +9630,16 @@
         <f>SUM(G13,F13)</f>
         <v>516</v>
       </c>
-      <c r="N13" s="63">
+      <c r="N13" s="55">
         <v>45248</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="R13" s="59">
+      <c r="R13" s="40">
         <v>253</v>
       </c>
-      <c r="S13" s="60">
+      <c r="S13" s="1">
         <v>117</v>
       </c>
       <c r="T13" s="1">
@@ -9682,10 +9672,10 @@
       <c r="Q14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="59">
+      <c r="R14" s="40">
         <v>174</v>
       </c>
-      <c r="S14" s="60">
+      <c r="S14" s="1">
         <v>132</v>
       </c>
       <c r="T14" s="1">
@@ -9739,28 +9729,28 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="M17" s="53" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="M17" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="3" t="s">
@@ -9826,7 +9816,7 @@
         <f>Meteo!E2</f>
         <v>2</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>266</v>
       </c>
       <c r="D19" s="2">
@@ -9852,6 +9842,9 @@
       <c r="I19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J19">
+        <v>3000</v>
+      </c>
       <c r="M19" s="49">
         <v>0.33333333333333331</v>
       </c>
@@ -9894,7 +9887,7 @@
         <f>Meteo!E3</f>
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>266</v>
       </c>
       <c r="D20" s="2">
@@ -9920,6 +9913,9 @@
       <c r="I20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J20">
+        <v>7500</v>
+      </c>
       <c r="M20" s="49">
         <v>0.375</v>
       </c>
@@ -9962,7 +9958,7 @@
         <f>Meteo!E4</f>
         <v>9</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>266</v>
       </c>
       <c r="D21" s="2">
@@ -9988,6 +9984,9 @@
       <c r="I21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J21">
+        <v>13500</v>
+      </c>
       <c r="M21" s="49">
         <v>0.41666666666666702</v>
       </c>
@@ -10030,7 +10029,7 @@
         <f>Meteo!E5</f>
         <v>6</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>266</v>
       </c>
       <c r="D22" s="2">
@@ -10056,6 +10055,9 @@
       <c r="I22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J22">
+        <v>9000</v>
+      </c>
       <c r="M22" s="49">
         <v>0.45833333333333298</v>
       </c>
@@ -10098,7 +10100,7 @@
         <f>Meteo!E6</f>
         <v>3</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>466</v>
       </c>
       <c r="D23" s="2">
@@ -10125,8 +10127,7 @@
         <v>7</v>
       </c>
       <c r="J23">
-        <f>D23/60</f>
-        <v>340.56833333333338</v>
+        <v>4500</v>
       </c>
       <c r="M23" s="49">
         <v>0.5</v>
@@ -10170,7 +10171,7 @@
         <f>Meteo!E7</f>
         <v>6</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>466</v>
       </c>
       <c r="D24" s="2">
@@ -10196,6 +10197,10 @@
       <c r="I24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J24">
+        <f>40000/2</f>
+        <v>20000</v>
+      </c>
       <c r="M24" s="49">
         <v>0.54166666666666696</v>
       </c>
@@ -10238,7 +10243,7 @@
         <f>Meteo!E8</f>
         <v>9</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>466</v>
       </c>
       <c r="D25" s="2">
@@ -10264,6 +10269,10 @@
       <c r="I25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J25">
+        <f>+SUM(J19:J24)</f>
+        <v>57500</v>
+      </c>
       <c r="M25" s="49">
         <v>0.58333333333333304</v>
       </c>
@@ -10306,7 +10315,7 @@
         <f>Meteo!E9</f>
         <v>1</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>466</v>
       </c>
       <c r="D26" s="2">
@@ -10332,6 +10341,10 @@
       <c r="I26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J26">
+        <f>J25-40000</f>
+        <v>17500</v>
+      </c>
       <c r="M26" s="49">
         <v>0.625</v>
       </c>
@@ -10374,7 +10387,7 @@
         <f>Meteo!E10</f>
         <v>10</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>466</v>
       </c>
       <c r="D27" s="2">
@@ -10442,7 +10455,7 @@
         <f>Meteo!E11</f>
         <v>6</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>466</v>
       </c>
       <c r="D28" s="2">
@@ -14710,367 +14723,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="55">
         <v>45250</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="60">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="60">
         <v>0.3743055555555555</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="61">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="9">
         <v>45250</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="12">
         <v>0.375</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="12">
         <v>0.41597222222222219</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="61">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="55">
         <v>45250</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="60">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="60">
         <v>0.45763888888888887</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="61">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="9">
         <v>45250</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="12">
         <v>0.4993055555555555</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="61">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="55">
         <v>45250</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="60">
         <v>0.5</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="60">
         <v>0.54097222222222219</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="61">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="9">
         <v>45250</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="12">
         <v>0.58263888888888882</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="55">
         <v>45250</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="60">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="60">
         <v>0.62430555555555556</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="61">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="9">
         <v>45250</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="12">
         <v>0.625</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="12">
         <v>0.66597222222222219</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="61">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="55">
         <v>45250</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="60">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="60">
         <v>0.70763888888888893</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="61">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="9">
         <v>45250</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="12">
         <v>0.75</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="61">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="9">
         <v>45251</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="60">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="60">
         <v>0.3743055555555555</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="61">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="9">
         <v>45251</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="12">
         <v>0.375</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="12">
         <v>0.41597222222222219</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="61">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="55">
         <v>45251</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="60">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="60">
         <v>0.45763888888888887</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="61">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="9">
         <v>45251</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="12">
         <v>0.4993055555555555</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="55">
         <v>45251</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="60">
         <v>0.5</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="60">
         <v>0.54097222222222219</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="61">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="9">
         <v>45251</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="12">
         <v>0.58263888888888882</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="55">
         <v>45251</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="60">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="60">
         <v>0.62430555555555556</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="61">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="9">
         <v>45251</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="12">
         <v>0.625</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="12">
         <v>0.66597222222222219</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="61">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="55">
         <v>45251</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="60">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="60">
         <v>0.70763888888888893</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="61">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="9">
         <v>45251</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="12">
         <v>0.75</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="61">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="9">
         <v>45252</v>
       </c>
       <c r="C22" s="13">
@@ -15084,7 +15097,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="15">
@@ -15101,7 +15114,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="40" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="15">
@@ -15118,7 +15131,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="40" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="15">
@@ -15135,7 +15148,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="40" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="15">
@@ -15152,7 +15165,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="40" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="15">
@@ -15169,7 +15182,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="40" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="15">
@@ -15186,7 +15199,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="40" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="15">
@@ -15203,7 +15216,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="40" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="15">
@@ -15220,7 +15233,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="40" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="15">
@@ -15237,7 +15250,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="40" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="15">
@@ -15254,7 +15267,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="40" t="s">
         <v>75</v>
       </c>
       <c r="B33" s="15">
@@ -15271,7 +15284,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="40" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="15">
@@ -15288,7 +15301,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="40" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="15">
@@ -15305,7 +15318,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="40" t="s">
         <v>78</v>
       </c>
       <c r="B36" s="15">
@@ -15322,7 +15335,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="15">
@@ -15339,7 +15352,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="15">
@@ -15356,7 +15369,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="40" t="s">
         <v>81</v>
       </c>
       <c r="B39" s="15">
@@ -15373,7 +15386,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="40" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="15">
@@ -15390,7 +15403,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B41" s="15">
@@ -15407,7 +15420,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="40" t="s">
         <v>84</v>
       </c>
       <c r="B42" s="15">
@@ -15424,7 +15437,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="40" t="s">
         <v>85</v>
       </c>
       <c r="B43" s="15">
@@ -15441,7 +15454,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="40" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="15">
@@ -15458,7 +15471,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="40" t="s">
         <v>87</v>
       </c>
       <c r="B45" s="15">
@@ -15475,7 +15488,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="15">
@@ -15492,7 +15505,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="40" t="s">
         <v>89</v>
       </c>
       <c r="B47" s="15">
@@ -15509,7 +15522,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="40" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="15">
@@ -15526,7 +15539,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="40" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="15">
@@ -15543,7 +15556,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="40" t="s">
         <v>92</v>
       </c>
       <c r="B50" s="15">
@@ -15560,7 +15573,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="40" t="s">
         <v>93</v>
       </c>
       <c r="B51" s="15">
@@ -15577,7 +15590,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="40" t="s">
         <v>94</v>
       </c>
       <c r="B52" s="15">
@@ -15594,7 +15607,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="40" t="s">
         <v>95</v>
       </c>
       <c r="B53" s="15">
@@ -15611,7 +15624,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="40" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="15">
@@ -15628,7 +15641,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="40" t="s">
         <v>97</v>
       </c>
       <c r="B55" s="15">
@@ -15645,7 +15658,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B56" s="15">
@@ -15662,7 +15675,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="40" t="s">
         <v>99</v>
       </c>
       <c r="B57" s="15">
@@ -15679,7 +15692,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="40" t="s">
         <v>100</v>
       </c>
       <c r="B58" s="15">
@@ -15696,7 +15709,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="40" t="s">
         <v>101</v>
       </c>
       <c r="B59" s="15">
@@ -15713,7 +15726,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="40" t="s">
         <v>102</v>
       </c>
       <c r="B60" s="15">
@@ -15730,7 +15743,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="40" t="s">
         <v>103</v>
       </c>
       <c r="B61" s="15">
@@ -15747,7 +15760,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="40" t="s">
         <v>104</v>
       </c>
       <c r="B62" s="15">
@@ -15764,7 +15777,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="40" t="s">
         <v>105</v>
       </c>
       <c r="B63" s="15">
@@ -15781,7 +15794,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="40" t="s">
         <v>106</v>
       </c>
       <c r="B64" s="15">
@@ -15798,7 +15811,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="59" t="s">
+      <c r="A65" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B65" s="15">
@@ -15815,7 +15828,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="59" t="s">
+      <c r="A66" s="40" t="s">
         <v>108</v>
       </c>
       <c r="B66" s="15">
@@ -15832,7 +15845,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="59" t="s">
+      <c r="A67" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B67" s="15">
@@ -15849,7 +15862,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="40" t="s">
         <v>110</v>
       </c>
       <c r="B68" s="15">
@@ -15866,7 +15879,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="59" t="s">
+      <c r="A69" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B69" s="15">
@@ -15883,7 +15896,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="59" t="s">
+      <c r="A70" s="40" t="s">
         <v>112</v>
       </c>
       <c r="B70" s="15">
@@ -15900,7 +15913,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="59" t="s">
+      <c r="A71" s="40" t="s">
         <v>113</v>
       </c>
       <c r="B71" s="15">
@@ -15917,7 +15930,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="40" t="s">
         <v>114</v>
       </c>
       <c r="B72" s="15">
@@ -15934,7 +15947,7 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="59" t="s">
+      <c r="A73" s="40" t="s">
         <v>115</v>
       </c>
       <c r="B73" s="15">
@@ -15951,7 +15964,7 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="59" t="s">
+      <c r="A74" s="40" t="s">
         <v>116</v>
       </c>
       <c r="B74" s="15">
@@ -15968,7 +15981,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="59" t="s">
+      <c r="A75" s="40" t="s">
         <v>117</v>
       </c>
       <c r="B75" s="15">
@@ -15985,7 +15998,7 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="59" t="s">
+      <c r="A76" s="40" t="s">
         <v>118</v>
       </c>
       <c r="B76" s="15">
@@ -16002,7 +16015,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="59" t="s">
+      <c r="A77" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B77" s="15">
@@ -16019,7 +16032,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="59" t="s">
+      <c r="A78" s="40" t="s">
         <v>120</v>
       </c>
       <c r="B78" s="15">
@@ -16036,7 +16049,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="59" t="s">
+      <c r="A79" s="40" t="s">
         <v>121</v>
       </c>
       <c r="B79" s="15">
@@ -16053,7 +16066,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="59" t="s">
+      <c r="A80" s="40" t="s">
         <v>122</v>
       </c>
       <c r="B80" s="15">
@@ -16070,7 +16083,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="59" t="s">
+      <c r="A81" s="40" t="s">
         <v>123</v>
       </c>
       <c r="B81" s="15">
@@ -16087,7 +16100,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="59" t="s">
+      <c r="A82" s="40" t="s">
         <v>124</v>
       </c>
       <c r="B82" s="15">
@@ -16104,7 +16117,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="59" t="s">
+      <c r="A83" s="40" t="s">
         <v>125</v>
       </c>
       <c r="B83" s="15">
@@ -16121,7 +16134,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="59" t="s">
+      <c r="A84" s="40" t="s">
         <v>126</v>
       </c>
       <c r="B84" s="15">
@@ -16138,7 +16151,7 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="40" t="s">
         <v>127</v>
       </c>
       <c r="B85" s="15">
@@ -16155,7 +16168,7 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="59" t="s">
+      <c r="A86" s="40" t="s">
         <v>128</v>
       </c>
       <c r="B86" s="15">
@@ -16172,7 +16185,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="59" t="s">
+      <c r="A87" s="40" t="s">
         <v>129</v>
       </c>
       <c r="B87" s="15">
@@ -16189,7 +16202,7 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="59" t="s">
+      <c r="A88" s="40" t="s">
         <v>130</v>
       </c>
       <c r="B88" s="15">
@@ -16206,7 +16219,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="59" t="s">
+      <c r="A89" s="40" t="s">
         <v>131</v>
       </c>
       <c r="B89" s="15">
@@ -16223,7 +16236,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="59" t="s">
+      <c r="A90" s="40" t="s">
         <v>132</v>
       </c>
       <c r="B90" s="15">
@@ -16240,7 +16253,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="59" t="s">
+      <c r="A91" s="40" t="s">
         <v>133</v>
       </c>
       <c r="B91" s="15">
@@ -16257,7 +16270,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="59" t="s">
+      <c r="A92" s="40" t="s">
         <v>134</v>
       </c>
       <c r="B92" s="15">
@@ -16274,7 +16287,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="59" t="s">
+      <c r="A93" s="40" t="s">
         <v>135</v>
       </c>
       <c r="B93" s="15">
@@ -16291,7 +16304,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="59" t="s">
+      <c r="A94" s="40" t="s">
         <v>136</v>
       </c>
       <c r="B94" s="15">
@@ -16308,7 +16321,7 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="59" t="s">
+      <c r="A95" s="40" t="s">
         <v>137</v>
       </c>
       <c r="B95" s="15">
@@ -16325,7 +16338,7 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="59" t="s">
+      <c r="A96" s="40" t="s">
         <v>138</v>
       </c>
       <c r="B96" s="15">
@@ -16342,7 +16355,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="59" t="s">
+      <c r="A97" s="40" t="s">
         <v>139</v>
       </c>
       <c r="B97" s="15">
@@ -16359,7 +16372,7 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="59" t="s">
+      <c r="A98" s="40" t="s">
         <v>140</v>
       </c>
       <c r="B98" s="15">
@@ -16376,7 +16389,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="59" t="s">
+      <c r="A99" s="40" t="s">
         <v>141</v>
       </c>
       <c r="B99" s="15">
@@ -16393,7 +16406,7 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="59" t="s">
+      <c r="A100" s="40" t="s">
         <v>142</v>
       </c>
       <c r="B100" s="15">
@@ -16410,7 +16423,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="40" t="s">
         <v>143</v>
       </c>
       <c r="B101" s="15">
@@ -16427,7 +16440,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="59" t="s">
+      <c r="A102" s="40" t="s">
         <v>144</v>
       </c>
       <c r="B102" s="15">
@@ -16444,7 +16457,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="59" t="s">
+      <c r="A103" s="40" t="s">
         <v>145</v>
       </c>
       <c r="B103" s="15">
@@ -16461,7 +16474,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="59" t="s">
+      <c r="A104" s="40" t="s">
         <v>146</v>
       </c>
       <c r="B104" s="15">
@@ -16478,7 +16491,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="59" t="s">
+      <c r="A105" s="40" t="s">
         <v>147</v>
       </c>
       <c r="B105" s="15">
@@ -16495,7 +16508,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="59" t="s">
+      <c r="A106" s="40" t="s">
         <v>148</v>
       </c>
       <c r="B106" s="15">
@@ -16512,7 +16525,7 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="59" t="s">
+      <c r="A107" s="40" t="s">
         <v>149</v>
       </c>
       <c r="B107" s="15">
@@ -16529,7 +16542,7 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="59" t="s">
+      <c r="A108" s="40" t="s">
         <v>150</v>
       </c>
       <c r="B108" s="15">
@@ -16546,7 +16559,7 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="59" t="s">
+      <c r="A109" s="40" t="s">
         <v>151</v>
       </c>
       <c r="B109" s="15">
@@ -16563,7 +16576,7 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="59" t="s">
+      <c r="A110" s="40" t="s">
         <v>152</v>
       </c>
       <c r="B110" s="15">
@@ -16580,7 +16593,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="59" t="s">
+      <c r="A111" s="40" t="s">
         <v>153</v>
       </c>
       <c r="B111" s="15">
@@ -16597,7 +16610,7 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="59" t="s">
+      <c r="A112" s="40" t="s">
         <v>154</v>
       </c>
       <c r="B112" s="15">
@@ -16614,7 +16627,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="59" t="s">
+      <c r="A113" s="40" t="s">
         <v>155</v>
       </c>
       <c r="B113" s="15">
@@ -16631,7 +16644,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="59" t="s">
+      <c r="A114" s="40" t="s">
         <v>156</v>
       </c>
       <c r="B114" s="15">
@@ -16648,7 +16661,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="59" t="s">
+      <c r="A115" s="40" t="s">
         <v>157</v>
       </c>
       <c r="B115" s="15">
@@ -16665,7 +16678,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="59" t="s">
+      <c r="A116" s="40" t="s">
         <v>158</v>
       </c>
       <c r="B116" s="15">
@@ -16682,7 +16695,7 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="59" t="s">
+      <c r="A117" s="40" t="s">
         <v>159</v>
       </c>
       <c r="B117" s="15">
@@ -16699,7 +16712,7 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="59" t="s">
+      <c r="A118" s="40" t="s">
         <v>160</v>
       </c>
       <c r="B118" s="15">
@@ -16716,7 +16729,7 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="59" t="s">
+      <c r="A119" s="40" t="s">
         <v>161</v>
       </c>
       <c r="B119" s="15">
@@ -16733,7 +16746,7 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="59" t="s">
+      <c r="A120" s="40" t="s">
         <v>162</v>
       </c>
       <c r="B120" s="15">
@@ -16750,7 +16763,7 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="59" t="s">
+      <c r="A121" s="40" t="s">
         <v>163</v>
       </c>
       <c r="B121" s="15">
@@ -16767,7 +16780,7 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="59" t="s">
+      <c r="A122" s="40" t="s">
         <v>164</v>
       </c>
       <c r="B122" s="15">
@@ -16784,7 +16797,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="59" t="s">
+      <c r="A123" s="40" t="s">
         <v>165</v>
       </c>
       <c r="B123" s="15">
@@ -16801,7 +16814,7 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="59" t="s">
+      <c r="A124" s="40" t="s">
         <v>166</v>
       </c>
       <c r="B124" s="15">
@@ -16818,7 +16831,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="59" t="s">
+      <c r="A125" s="40" t="s">
         <v>167</v>
       </c>
       <c r="B125" s="15">
@@ -16835,7 +16848,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="59" t="s">
+      <c r="A126" s="40" t="s">
         <v>168</v>
       </c>
       <c r="B126" s="15">
@@ -16852,7 +16865,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="59" t="s">
+      <c r="A127" s="40" t="s">
         <v>169</v>
       </c>
       <c r="B127" s="15">
@@ -16869,7 +16882,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="59" t="s">
+      <c r="A128" s="40" t="s">
         <v>170</v>
       </c>
       <c r="B128" s="15">
@@ -16886,7 +16899,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="59" t="s">
+      <c r="A129" s="40" t="s">
         <v>171</v>
       </c>
       <c r="B129" s="15">
@@ -16903,7 +16916,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="59" t="s">
+      <c r="A130" s="40" t="s">
         <v>172</v>
       </c>
       <c r="B130" s="15">
@@ -16920,7 +16933,7 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="59" t="s">
+      <c r="A131" s="40" t="s">
         <v>173</v>
       </c>
       <c r="B131" s="15">
@@ -16937,7 +16950,7 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="59" t="s">
+      <c r="A132" s="40" t="s">
         <v>174</v>
       </c>
       <c r="B132" s="15">
@@ -16954,7 +16967,7 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="59" t="s">
+      <c r="A133" s="40" t="s">
         <v>175</v>
       </c>
       <c r="B133" s="15">
@@ -16971,7 +16984,7 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="59" t="s">
+      <c r="A134" s="40" t="s">
         <v>176</v>
       </c>
       <c r="B134" s="15">
@@ -16988,7 +17001,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="59" t="s">
+      <c r="A135" s="40" t="s">
         <v>177</v>
       </c>
       <c r="B135" s="15">
@@ -17005,7 +17018,7 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="59" t="s">
+      <c r="A136" s="40" t="s">
         <v>178</v>
       </c>
       <c r="B136" s="15">
@@ -17022,7 +17035,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="59" t="s">
+      <c r="A137" s="40" t="s">
         <v>179</v>
       </c>
       <c r="B137" s="15">
@@ -17039,7 +17052,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="59" t="s">
+      <c r="A138" s="40" t="s">
         <v>180</v>
       </c>
       <c r="B138" s="15">
@@ -17056,7 +17069,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="59" t="s">
+      <c r="A139" s="40" t="s">
         <v>181</v>
       </c>
       <c r="B139" s="15">
@@ -17073,7 +17086,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="59" t="s">
+      <c r="A140" s="40" t="s">
         <v>182</v>
       </c>
       <c r="B140" s="15">
@@ -17090,7 +17103,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="59" t="s">
+      <c r="A141" s="40" t="s">
         <v>183</v>
       </c>
       <c r="B141" s="15">
@@ -17107,7 +17120,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="59" t="s">
+      <c r="A142" s="40" t="s">
         <v>184</v>
       </c>
       <c r="B142" s="15">
@@ -17124,7 +17137,7 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="59" t="s">
+      <c r="A143" s="40" t="s">
         <v>185</v>
       </c>
       <c r="B143" s="15">
@@ -17141,7 +17154,7 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="59" t="s">
+      <c r="A144" s="40" t="s">
         <v>186</v>
       </c>
       <c r="B144" s="15">
@@ -17158,7 +17171,7 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="59" t="s">
+      <c r="A145" s="40" t="s">
         <v>187</v>
       </c>
       <c r="B145" s="15">
@@ -17175,7 +17188,7 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="59" t="s">
+      <c r="A146" s="40" t="s">
         <v>188</v>
       </c>
       <c r="B146" s="15">
@@ -17192,7 +17205,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="59" t="s">
+      <c r="A147" s="40" t="s">
         <v>189</v>
       </c>
       <c r="B147" s="15">
@@ -17209,7 +17222,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="59" t="s">
+      <c r="A148" s="40" t="s">
         <v>190</v>
       </c>
       <c r="B148" s="15">
@@ -17226,7 +17239,7 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="59" t="s">
+      <c r="A149" s="40" t="s">
         <v>191</v>
       </c>
       <c r="B149" s="15">
@@ -17243,7 +17256,7 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="59" t="s">
+      <c r="A150" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B150" s="15">
@@ -17260,7 +17273,7 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="59" t="s">
+      <c r="A151" s="40" t="s">
         <v>193</v>
       </c>
       <c r="B151" s="15">
@@ -17277,7 +17290,7 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="59" t="s">
+      <c r="A152" s="40" t="s">
         <v>194</v>
       </c>
       <c r="B152" s="15">
@@ -17294,7 +17307,7 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="59" t="s">
+      <c r="A153" s="40" t="s">
         <v>195</v>
       </c>
       <c r="B153" s="15">
@@ -17311,7 +17324,7 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="59" t="s">
+      <c r="A154" s="40" t="s">
         <v>196</v>
       </c>
       <c r="B154" s="15">
@@ -17328,7 +17341,7 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="59" t="s">
+      <c r="A155" s="40" t="s">
         <v>197</v>
       </c>
       <c r="B155" s="15">
@@ -17345,7 +17358,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="59" t="s">
+      <c r="A156" s="40" t="s">
         <v>198</v>
       </c>
       <c r="B156" s="15">
@@ -17362,7 +17375,7 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="59" t="s">
+      <c r="A157" s="40" t="s">
         <v>199</v>
       </c>
       <c r="B157" s="15">
@@ -17379,7 +17392,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="59" t="s">
+      <c r="A158" s="40" t="s">
         <v>200</v>
       </c>
       <c r="B158" s="15">
@@ -17396,7 +17409,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="59" t="s">
+      <c r="A159" s="40" t="s">
         <v>201</v>
       </c>
       <c r="B159" s="15">
@@ -17413,7 +17426,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="59" t="s">
+      <c r="A160" s="40" t="s">
         <v>202</v>
       </c>
       <c r="B160" s="15">
@@ -17430,7 +17443,7 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="59" t="s">
+      <c r="A161" s="40" t="s">
         <v>203</v>
       </c>
       <c r="B161" s="15">
@@ -17447,7 +17460,7 @@
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="59" t="s">
+      <c r="A162" s="40" t="s">
         <v>204</v>
       </c>
       <c r="B162" s="15">
@@ -17464,7 +17477,7 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="59" t="s">
+      <c r="A163" s="40" t="s">
         <v>205</v>
       </c>
       <c r="B163" s="15">
@@ -17481,7 +17494,7 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="59" t="s">
+      <c r="A164" s="40" t="s">
         <v>206</v>
       </c>
       <c r="B164" s="15">
@@ -17498,7 +17511,7 @@
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="59" t="s">
+      <c r="A165" s="40" t="s">
         <v>207</v>
       </c>
       <c r="B165" s="15">
@@ -17515,7 +17528,7 @@
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="59" t="s">
+      <c r="A166" s="40" t="s">
         <v>208</v>
       </c>
       <c r="B166" s="15">
@@ -17532,7 +17545,7 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="59" t="s">
+      <c r="A167" s="40" t="s">
         <v>209</v>
       </c>
       <c r="B167" s="15">
@@ -17549,7 +17562,7 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="59" t="s">
+      <c r="A168" s="40" t="s">
         <v>210</v>
       </c>
       <c r="B168" s="15">
@@ -17566,7 +17579,7 @@
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="59" t="s">
+      <c r="A169" s="40" t="s">
         <v>211</v>
       </c>
       <c r="B169" s="15">
@@ -17583,7 +17596,7 @@
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="59" t="s">
+      <c r="A170" s="40" t="s">
         <v>212</v>
       </c>
       <c r="B170" s="15">
@@ -17600,7 +17613,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="59" t="s">
+      <c r="A171" s="40" t="s">
         <v>213</v>
       </c>
       <c r="B171" s="15">
@@ -17617,7 +17630,7 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="59" t="s">
+      <c r="A172" s="40" t="s">
         <v>414</v>
       </c>
       <c r="B172" s="15">
@@ -17634,7 +17647,7 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="59" t="s">
+      <c r="A173" s="40" t="s">
         <v>415</v>
       </c>
       <c r="B173" s="15">
@@ -17651,7 +17664,7 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="59" t="s">
+      <c r="A174" s="40" t="s">
         <v>416</v>
       </c>
       <c r="B174" s="15">
@@ -17668,7 +17681,7 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="59" t="s">
+      <c r="A175" s="40" t="s">
         <v>417</v>
       </c>
       <c r="B175" s="15">
@@ -17685,7 +17698,7 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="59" t="s">
+      <c r="A176" s="40" t="s">
         <v>418</v>
       </c>
       <c r="B176" s="15">
@@ -17702,7 +17715,7 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="59" t="s">
+      <c r="A177" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B177" s="15">
@@ -17719,7 +17732,7 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="59" t="s">
+      <c r="A178" s="40" t="s">
         <v>420</v>
       </c>
       <c r="B178" s="15">
@@ -17736,7 +17749,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="59" t="s">
+      <c r="A179" s="40" t="s">
         <v>421</v>
       </c>
       <c r="B179" s="15">
@@ -17753,7 +17766,7 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="59" t="s">
+      <c r="A180" s="40" t="s">
         <v>422</v>
       </c>
       <c r="B180" s="15">
@@ -17770,7 +17783,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="59" t="s">
+      <c r="A181" s="40" t="s">
         <v>423</v>
       </c>
       <c r="B181" s="15">
@@ -17787,7 +17800,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="59" t="s">
+      <c r="A182" s="40" t="s">
         <v>424</v>
       </c>
       <c r="B182" s="15">
@@ -17804,7 +17817,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="59" t="s">
+      <c r="A183" s="40" t="s">
         <v>425</v>
       </c>
       <c r="B183" s="15">
@@ -17821,7 +17834,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="59" t="s">
+      <c r="A184" s="40" t="s">
         <v>426</v>
       </c>
       <c r="B184" s="15">
@@ -17838,7 +17851,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="59" t="s">
+      <c r="A185" s="40" t="s">
         <v>427</v>
       </c>
       <c r="B185" s="15">
@@ -17855,7 +17868,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="59" t="s">
+      <c r="A186" s="40" t="s">
         <v>428</v>
       </c>
       <c r="B186" s="15">
@@ -17872,7 +17885,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="59" t="s">
+      <c r="A187" s="40" t="s">
         <v>429</v>
       </c>
       <c r="B187" s="15">
@@ -17889,7 +17902,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="59" t="s">
+      <c r="A188" s="40" t="s">
         <v>430</v>
       </c>
       <c r="B188" s="15">
@@ -17906,7 +17919,7 @@
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="59" t="s">
+      <c r="A189" s="40" t="s">
         <v>431</v>
       </c>
       <c r="B189" s="15">
@@ -17923,7 +17936,7 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="59" t="s">
+      <c r="A190" s="40" t="s">
         <v>432</v>
       </c>
       <c r="B190" s="15">
@@ -17940,7 +17953,7 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="59" t="s">
+      <c r="A191" s="40" t="s">
         <v>433</v>
       </c>
       <c r="B191" s="15">
@@ -17957,7 +17970,7 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="59" t="s">
+      <c r="A192" s="40" t="s">
         <v>434</v>
       </c>
       <c r="B192" s="15">
@@ -17974,7 +17987,7 @@
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="59" t="s">
+      <c r="A193" s="40" t="s">
         <v>435</v>
       </c>
       <c r="B193" s="15">
@@ -17991,7 +18004,7 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="59" t="s">
+      <c r="A194" s="40" t="s">
         <v>436</v>
       </c>
       <c r="B194" s="15">
@@ -18008,7 +18021,7 @@
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="59" t="s">
+      <c r="A195" s="40" t="s">
         <v>437</v>
       </c>
       <c r="B195" s="15">
@@ -18025,7 +18038,7 @@
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="59" t="s">
+      <c r="A196" s="40" t="s">
         <v>438</v>
       </c>
       <c r="B196" s="15">
@@ -18042,7 +18055,7 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="59" t="s">
+      <c r="A197" s="40" t="s">
         <v>439</v>
       </c>
       <c r="B197" s="15">
@@ -18059,7 +18072,7 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="59" t="s">
+      <c r="A198" s="40" t="s">
         <v>440</v>
       </c>
       <c r="B198" s="15">
@@ -18076,7 +18089,7 @@
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="59" t="s">
+      <c r="A199" s="40" t="s">
         <v>441</v>
       </c>
       <c r="B199" s="15">
@@ -18093,7 +18106,7 @@
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="59" t="s">
+      <c r="A200" s="40" t="s">
         <v>442</v>
       </c>
       <c r="B200" s="15">
@@ -18110,7 +18123,7 @@
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="59" t="s">
+      <c r="A201" s="40" t="s">
         <v>443</v>
       </c>
       <c r="B201" s="15">
@@ -18127,7 +18140,7 @@
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="59" t="s">
+      <c r="A202" s="40" t="s">
         <v>444</v>
       </c>
       <c r="B202" s="15">
@@ -18144,7 +18157,7 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="59" t="s">
+      <c r="A203" s="40" t="s">
         <v>445</v>
       </c>
       <c r="B203" s="15">
@@ -18161,7 +18174,7 @@
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="59" t="s">
+      <c r="A204" s="40" t="s">
         <v>446</v>
       </c>
       <c r="B204" s="15">
@@ -18178,7 +18191,7 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="59" t="s">
+      <c r="A205" s="40" t="s">
         <v>447</v>
       </c>
       <c r="B205" s="15">
@@ -18195,7 +18208,7 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="59" t="s">
+      <c r="A206" s="40" t="s">
         <v>448</v>
       </c>
       <c r="B206" s="15">
@@ -18212,7 +18225,7 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="59" t="s">
+      <c r="A207" s="40" t="s">
         <v>449</v>
       </c>
       <c r="B207" s="15">
@@ -18229,7 +18242,7 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="59" t="s">
+      <c r="A208" s="40" t="s">
         <v>450</v>
       </c>
       <c r="B208" s="15">
@@ -18246,7 +18259,7 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="59" t="s">
+      <c r="A209" s="40" t="s">
         <v>451</v>
       </c>
       <c r="B209" s="15">
@@ -18263,7 +18276,7 @@
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="59" t="s">
+      <c r="A210" s="40" t="s">
         <v>452</v>
       </c>
       <c r="B210" s="15">
@@ -18280,7 +18293,7 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="59" t="s">
+      <c r="A211" s="40" t="s">
         <v>453</v>
       </c>
       <c r="B211" s="15">
@@ -18297,7 +18310,7 @@
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="59" t="s">
+      <c r="A212" s="40" t="s">
         <v>454</v>
       </c>
       <c r="B212" s="15">
@@ -18314,7 +18327,7 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="59" t="s">
+      <c r="A213" s="40" t="s">
         <v>455</v>
       </c>
       <c r="B213" s="15">
@@ -18331,7 +18344,7 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="59" t="s">
+      <c r="A214" s="40" t="s">
         <v>456</v>
       </c>
       <c r="B214" s="15">
@@ -18348,7 +18361,7 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="59" t="s">
+      <c r="A215" s="40" t="s">
         <v>457</v>
       </c>
       <c r="B215" s="15">
@@ -18365,7 +18378,7 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="59" t="s">
+      <c r="A216" s="40" t="s">
         <v>458</v>
       </c>
       <c r="B216" s="15">
@@ -18382,7 +18395,7 @@
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="59" t="s">
+      <c r="A217" s="40" t="s">
         <v>459</v>
       </c>
       <c r="B217" s="15">
@@ -18399,7 +18412,7 @@
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="59" t="s">
+      <c r="A218" s="40" t="s">
         <v>460</v>
       </c>
       <c r="B218" s="15">
@@ -18416,7 +18429,7 @@
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="59" t="s">
+      <c r="A219" s="40" t="s">
         <v>461</v>
       </c>
       <c r="B219" s="15">
@@ -18433,7 +18446,7 @@
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="59" t="s">
+      <c r="A220" s="40" t="s">
         <v>462</v>
       </c>
       <c r="B220" s="15">
@@ -18450,7 +18463,7 @@
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="59" t="s">
+      <c r="A221" s="40" t="s">
         <v>463</v>
       </c>
       <c r="B221" s="15">
@@ -18467,7 +18480,7 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="59" t="s">
+      <c r="A222" s="40" t="s">
         <v>464</v>
       </c>
       <c r="B222" s="15">
@@ -18484,7 +18497,7 @@
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="59" t="s">
+      <c r="A223" s="40" t="s">
         <v>465</v>
       </c>
       <c r="B223" s="15">
@@ -18501,7 +18514,7 @@
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="59" t="s">
+      <c r="A224" s="40" t="s">
         <v>466</v>
       </c>
       <c r="B224" s="15">
@@ -18518,7 +18531,7 @@
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="59" t="s">
+      <c r="A225" s="40" t="s">
         <v>467</v>
       </c>
       <c r="B225" s="15">
@@ -18535,7 +18548,7 @@
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="59" t="s">
+      <c r="A226" s="40" t="s">
         <v>468</v>
       </c>
       <c r="B226" s="15">
@@ -18552,7 +18565,7 @@
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="59" t="s">
+      <c r="A227" s="40" t="s">
         <v>469</v>
       </c>
       <c r="B227" s="15">
@@ -18569,7 +18582,7 @@
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="59" t="s">
+      <c r="A228" s="40" t="s">
         <v>470</v>
       </c>
       <c r="B228" s="15">
@@ -18586,7 +18599,7 @@
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="59" t="s">
+      <c r="A229" s="40" t="s">
         <v>471</v>
       </c>
       <c r="B229" s="15">
@@ -18603,7 +18616,7 @@
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="59" t="s">
+      <c r="A230" s="40" t="s">
         <v>472</v>
       </c>
       <c r="B230" s="15">
@@ -18620,7 +18633,7 @@
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="59" t="s">
+      <c r="A231" s="40" t="s">
         <v>473</v>
       </c>
       <c r="B231" s="15">
@@ -18637,7 +18650,7 @@
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="59" t="s">
+      <c r="A232" s="40" t="s">
         <v>474</v>
       </c>
       <c r="B232" s="15">
@@ -18654,7 +18667,7 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="59" t="s">
+      <c r="A233" s="40" t="s">
         <v>475</v>
       </c>
       <c r="B233" s="15">
@@ -18671,7 +18684,7 @@
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="59" t="s">
+      <c r="A234" s="40" t="s">
         <v>476</v>
       </c>
       <c r="B234" s="15">
@@ -18688,7 +18701,7 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="59" t="s">
+      <c r="A235" s="40" t="s">
         <v>477</v>
       </c>
       <c r="B235" s="15">
@@ -18705,7 +18718,7 @@
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="59" t="s">
+      <c r="A236" s="40" t="s">
         <v>478</v>
       </c>
       <c r="B236" s="15">
@@ -18722,7 +18735,7 @@
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="59" t="s">
+      <c r="A237" s="40" t="s">
         <v>479</v>
       </c>
       <c r="B237" s="15">
@@ -18739,7 +18752,7 @@
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="59" t="s">
+      <c r="A238" s="40" t="s">
         <v>480</v>
       </c>
       <c r="B238" s="15">
@@ -18756,7 +18769,7 @@
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="59" t="s">
+      <c r="A239" s="40" t="s">
         <v>481</v>
       </c>
       <c r="B239" s="15">
@@ -18773,7 +18786,7 @@
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="59" t="s">
+      <c r="A240" s="40" t="s">
         <v>482</v>
       </c>
       <c r="B240" s="15">
@@ -18790,7 +18803,7 @@
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="59" t="s">
+      <c r="A241" s="40" t="s">
         <v>483</v>
       </c>
       <c r="B241" s="15">
@@ -18807,7 +18820,7 @@
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="59" t="s">
+      <c r="A242" s="40" t="s">
         <v>484</v>
       </c>
       <c r="B242" s="15">
@@ -18824,7 +18837,7 @@
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="59" t="s">
+      <c r="A243" s="40" t="s">
         <v>485</v>
       </c>
       <c r="B243" s="15">
@@ -18841,7 +18854,7 @@
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="59" t="s">
+      <c r="A244" s="40" t="s">
         <v>486</v>
       </c>
       <c r="B244" s="15">
@@ -18858,7 +18871,7 @@
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="59" t="s">
+      <c r="A245" s="40" t="s">
         <v>487</v>
       </c>
       <c r="B245" s="15">
@@ -18875,7 +18888,7 @@
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="59" t="s">
+      <c r="A246" s="40" t="s">
         <v>488</v>
       </c>
       <c r="B246" s="15">
@@ -18892,7 +18905,7 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="59" t="s">
+      <c r="A247" s="40" t="s">
         <v>489</v>
       </c>
       <c r="B247" s="15">
@@ -18909,7 +18922,7 @@
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="59" t="s">
+      <c r="A248" s="40" t="s">
         <v>490</v>
       </c>
       <c r="B248" s="15">
@@ -18926,7 +18939,7 @@
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="59" t="s">
+      <c r="A249" s="40" t="s">
         <v>491</v>
       </c>
       <c r="B249" s="15">
@@ -18943,7 +18956,7 @@
       </c>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="59" t="s">
+      <c r="A250" s="40" t="s">
         <v>492</v>
       </c>
       <c r="B250" s="15">
@@ -18960,7 +18973,7 @@
       </c>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="59" t="s">
+      <c r="A251" s="40" t="s">
         <v>493</v>
       </c>
       <c r="B251" s="15">
@@ -18977,7 +18990,7 @@
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="59" t="s">
+      <c r="A252" s="40" t="s">
         <v>494</v>
       </c>
       <c r="B252" s="15">
@@ -18994,7 +19007,7 @@
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="59" t="s">
+      <c r="A253" s="40" t="s">
         <v>495</v>
       </c>
       <c r="B253" s="15">
@@ -19011,7 +19024,7 @@
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="59" t="s">
+      <c r="A254" s="40" t="s">
         <v>496</v>
       </c>
       <c r="B254" s="15">
@@ -19028,7 +19041,7 @@
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="59" t="s">
+      <c r="A255" s="40" t="s">
         <v>497</v>
       </c>
       <c r="B255" s="15">
@@ -19045,7 +19058,7 @@
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="59" t="s">
+      <c r="A256" s="40" t="s">
         <v>498</v>
       </c>
       <c r="B256" s="15">
@@ -19062,7 +19075,7 @@
       </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="59" t="s">
+      <c r="A257" s="40" t="s">
         <v>499</v>
       </c>
       <c r="B257" s="15">
@@ -19079,7 +19092,7 @@
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="59" t="s">
+      <c r="A258" s="40" t="s">
         <v>500</v>
       </c>
       <c r="B258" s="15">
@@ -19096,7 +19109,7 @@
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="59" t="s">
+      <c r="A259" s="40" t="s">
         <v>501</v>
       </c>
       <c r="B259" s="15">
@@ -19113,7 +19126,7 @@
       </c>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="59" t="s">
+      <c r="A260" s="40" t="s">
         <v>502</v>
       </c>
       <c r="B260" s="15">
@@ -19130,7 +19143,7 @@
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="59" t="s">
+      <c r="A261" s="40" t="s">
         <v>503</v>
       </c>
       <c r="B261" s="15">
@@ -19147,7 +19160,7 @@
       </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="59" t="s">
+      <c r="A262" s="40" t="s">
         <v>504</v>
       </c>
       <c r="B262" s="15">
@@ -19164,7 +19177,7 @@
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="59" t="s">
+      <c r="A263" s="40" t="s">
         <v>505</v>
       </c>
       <c r="B263" s="15">
@@ -19181,7 +19194,7 @@
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="59" t="s">
+      <c r="A264" s="40" t="s">
         <v>506</v>
       </c>
       <c r="B264" s="15">
@@ -19198,7 +19211,7 @@
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="59" t="s">
+      <c r="A265" s="40" t="s">
         <v>507</v>
       </c>
       <c r="B265" s="15">
@@ -19215,7 +19228,7 @@
       </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="59" t="s">
+      <c r="A266" s="40" t="s">
         <v>508</v>
       </c>
       <c r="B266" s="15">
@@ -19232,7 +19245,7 @@
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="59" t="s">
+      <c r="A267" s="40" t="s">
         <v>509</v>
       </c>
       <c r="B267" s="15">
@@ -19249,7 +19262,7 @@
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="59" t="s">
+      <c r="A268" s="40" t="s">
         <v>510</v>
       </c>
       <c r="B268" s="15">
@@ -19266,7 +19279,7 @@
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="59" t="s">
+      <c r="A269" s="40" t="s">
         <v>511</v>
       </c>
       <c r="B269" s="15">
@@ -19283,7 +19296,7 @@
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="59" t="s">
+      <c r="A270" s="40" t="s">
         <v>512</v>
       </c>
       <c r="B270" s="15">
@@ -19300,7 +19313,7 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="59" t="s">
+      <c r="A271" s="40" t="s">
         <v>513</v>
       </c>
       <c r="B271" s="15">
@@ -19317,7 +19330,7 @@
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="59" t="s">
+      <c r="A272" s="40" t="s">
         <v>514</v>
       </c>
       <c r="B272" s="15">
@@ -19334,7 +19347,7 @@
       </c>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="59" t="s">
+      <c r="A273" s="40" t="s">
         <v>515</v>
       </c>
       <c r="B273" s="15">
@@ -19351,7 +19364,7 @@
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="59" t="s">
+      <c r="A274" s="40" t="s">
         <v>516</v>
       </c>
       <c r="B274" s="15">
@@ -19368,7 +19381,7 @@
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="59" t="s">
+      <c r="A275" s="40" t="s">
         <v>517</v>
       </c>
       <c r="B275" s="15">
@@ -19385,7 +19398,7 @@
       </c>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="59" t="s">
+      <c r="A276" s="40" t="s">
         <v>518</v>
       </c>
       <c r="B276" s="15">
@@ -19402,7 +19415,7 @@
       </c>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="59" t="s">
+      <c r="A277" s="40" t="s">
         <v>519</v>
       </c>
       <c r="B277" s="15">
@@ -19419,7 +19432,7 @@
       </c>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="59" t="s">
+      <c r="A278" s="40" t="s">
         <v>520</v>
       </c>
       <c r="B278" s="15">
@@ -19436,7 +19449,7 @@
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="59" t="s">
+      <c r="A279" s="40" t="s">
         <v>521</v>
       </c>
       <c r="B279" s="15">
@@ -19453,7 +19466,7 @@
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="59" t="s">
+      <c r="A280" s="40" t="s">
         <v>522</v>
       </c>
       <c r="B280" s="15">
@@ -19470,7 +19483,7 @@
       </c>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="59" t="s">
+      <c r="A281" s="40" t="s">
         <v>523</v>
       </c>
       <c r="B281" s="15">
@@ -19487,7 +19500,7 @@
       </c>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="59" t="s">
+      <c r="A282" s="40" t="s">
         <v>524</v>
       </c>
       <c r="B282" s="15">
@@ -19504,7 +19517,7 @@
       </c>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="59" t="s">
+      <c r="A283" s="40" t="s">
         <v>525</v>
       </c>
       <c r="B283" s="15">
@@ -19521,7 +19534,7 @@
       </c>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="59" t="s">
+      <c r="A284" s="40" t="s">
         <v>526</v>
       </c>
       <c r="B284" s="15">
@@ -19538,7 +19551,7 @@
       </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="59" t="s">
+      <c r="A285" s="40" t="s">
         <v>527</v>
       </c>
       <c r="B285" s="15">
@@ -19555,7 +19568,7 @@
       </c>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="59" t="s">
+      <c r="A286" s="40" t="s">
         <v>528</v>
       </c>
       <c r="B286" s="15">
@@ -19572,7 +19585,7 @@
       </c>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="59" t="s">
+      <c r="A287" s="40" t="s">
         <v>529</v>
       </c>
       <c r="B287" s="15">
@@ -19589,7 +19602,7 @@
       </c>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="59" t="s">
+      <c r="A288" s="40" t="s">
         <v>530</v>
       </c>
       <c r="B288" s="15">
@@ -19606,7 +19619,7 @@
       </c>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="59" t="s">
+      <c r="A289" s="40" t="s">
         <v>531</v>
       </c>
       <c r="B289" s="15">
@@ -19623,7 +19636,7 @@
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="59" t="s">
+      <c r="A290" s="40" t="s">
         <v>532</v>
       </c>
       <c r="B290" s="15">
@@ -19640,7 +19653,7 @@
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="59" t="s">
+      <c r="A291" s="40" t="s">
         <v>533</v>
       </c>
       <c r="B291" s="15">
@@ -19657,7 +19670,7 @@
       </c>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="59" t="s">
+      <c r="A292" s="40" t="s">
         <v>534</v>
       </c>
       <c r="B292" s="15">
@@ -19674,7 +19687,7 @@
       </c>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="59" t="s">
+      <c r="A293" s="40" t="s">
         <v>535</v>
       </c>
       <c r="B293" s="15">
@@ -19691,7 +19704,7 @@
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="59" t="s">
+      <c r="A294" s="40" t="s">
         <v>536</v>
       </c>
       <c r="B294" s="15">
@@ -19708,7 +19721,7 @@
       </c>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="59" t="s">
+      <c r="A295" s="40" t="s">
         <v>537</v>
       </c>
       <c r="B295" s="15">
@@ -19725,7 +19738,7 @@
       </c>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="59" t="s">
+      <c r="A296" s="40" t="s">
         <v>538</v>
       </c>
       <c r="B296" s="15">
@@ -19742,7 +19755,7 @@
       </c>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="59" t="s">
+      <c r="A297" s="40" t="s">
         <v>539</v>
       </c>
       <c r="B297" s="15">
@@ -19759,7 +19772,7 @@
       </c>
     </row>
     <row r="298" spans="1:5">
-      <c r="A298" s="59" t="s">
+      <c r="A298" s="40" t="s">
         <v>540</v>
       </c>
       <c r="B298" s="15">
@@ -19776,7 +19789,7 @@
       </c>
     </row>
     <row r="299" spans="1:5">
-      <c r="A299" s="59" t="s">
+      <c r="A299" s="40" t="s">
         <v>541</v>
       </c>
       <c r="B299" s="15">
@@ -19793,7 +19806,7 @@
       </c>
     </row>
     <row r="300" spans="1:5">
-      <c r="A300" s="59" t="s">
+      <c r="A300" s="40" t="s">
         <v>542</v>
       </c>
       <c r="B300" s="15">
@@ -19810,7 +19823,7 @@
       </c>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301" s="59" t="s">
+      <c r="A301" s="40" t="s">
         <v>543</v>
       </c>
       <c r="B301" s="15">
@@ -19827,7 +19840,7 @@
       </c>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302" s="59" t="s">
+      <c r="A302" s="40" t="s">
         <v>544</v>
       </c>
       <c r="B302" s="15">
@@ -19844,7 +19857,7 @@
       </c>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303" s="59" t="s">
+      <c r="A303" s="40" t="s">
         <v>545</v>
       </c>
       <c r="B303" s="15">
@@ -19861,7 +19874,7 @@
       </c>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304" s="59" t="s">
+      <c r="A304" s="40" t="s">
         <v>546</v>
       </c>
       <c r="B304" s="15">
@@ -19878,7 +19891,7 @@
       </c>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305" s="59" t="s">
+      <c r="A305" s="40" t="s">
         <v>547</v>
       </c>
       <c r="B305" s="15">
@@ -19895,7 +19908,7 @@
       </c>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306" s="59" t="s">
+      <c r="A306" s="40" t="s">
         <v>548</v>
       </c>
       <c r="B306" s="15">
@@ -19912,7 +19925,7 @@
       </c>
     </row>
     <row r="307" spans="1:5">
-      <c r="A307" s="59" t="s">
+      <c r="A307" s="40" t="s">
         <v>549</v>
       </c>
       <c r="B307" s="15">
@@ -19938,7 +19951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6ABF0E-A089-42A1-9524-E7C4535210DC}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -19949,25 +19962,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="56" t="s">
         <v>395</v>
       </c>
     </row>
@@ -21872,30 +21885,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="59" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="58">
         <v>45231</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="62">
         <v>0.65625</v>
       </c>
     </row>
@@ -22330,7 +22343,7 @@
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E2"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -23752,7 +23765,7 @@
         <f>SUBTOTAL(109,Tableau3[Heure])</f>
         <v>14.795833333333333</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="19">
         <f>SUBTOTAL(109,Tableau3[Itération])</f>
         <v>1642.0600000000002</v>
       </c>
@@ -23768,7 +23781,7 @@
         <f>SUBTOTAL(109,Tableau3[Difference])</f>
         <v>125.22999999999996</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="53">
         <f>SUBTOTAL(109,Tableau3[Mirindra])</f>
         <v>1359.6159048110189</v>
       </c>
@@ -23776,8 +23789,8 @@
         <f>SUBTOTAL(109,Tableau3[Difference2])</f>
         <v>157.21409518898079</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57">
+      <c r="L32" s="53"/>
+      <c r="M32" s="53">
         <f>SUBTOTAL(109,Tableau3[Difference3])</f>
         <v>0.69900000000002294</v>
       </c>
@@ -23824,7 +23837,7 @@
       <c r="A4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4">
         <v>185.63333333333333</v>
       </c>
     </row>
@@ -23832,7 +23845,7 @@
       <c r="A5" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5">
         <v>181.83333333333334</v>
       </c>
     </row>
@@ -23840,7 +23853,7 @@
       <c r="A6" s="38">
         <v>45243</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6">
         <v>258</v>
       </c>
     </row>
@@ -23848,7 +23861,7 @@
       <c r="A7" s="38">
         <v>45250</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7">
         <v>87.5</v>
       </c>
     </row>
@@ -23856,7 +23869,7 @@
       <c r="A8" s="38">
         <v>45257</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8">
         <v>200</v>
       </c>
     </row>
@@ -23864,7 +23877,7 @@
       <c r="A9" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9">
         <v>197.25</v>
       </c>
     </row>
@@ -23872,7 +23885,7 @@
       <c r="A10" s="38">
         <v>45244</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10">
         <v>228</v>
       </c>
     </row>
@@ -23880,7 +23893,7 @@
       <c r="A11" s="38">
         <v>45251</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11">
         <v>166.5</v>
       </c>
     </row>
@@ -23888,7 +23901,7 @@
       <c r="A12" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12">
         <v>193.5</v>
       </c>
     </row>
@@ -23896,7 +23909,7 @@
       <c r="A13" s="38">
         <v>45245</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13">
         <v>128</v>
       </c>
     </row>
@@ -23904,7 +23917,7 @@
       <c r="A14" s="38">
         <v>45252</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14">
         <v>259</v>
       </c>
     </row>
@@ -23912,7 +23925,7 @@
       <c r="A15" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15">
         <v>178</v>
       </c>
     </row>
@@ -23920,7 +23933,7 @@
       <c r="A16" s="38">
         <v>45246</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16">
         <v>138</v>
       </c>
       <c r="D16">
@@ -23932,7 +23945,7 @@
       <c r="A17" s="38">
         <v>45253</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17">
         <v>218</v>
       </c>
       <c r="D17">
@@ -23944,7 +23957,7 @@
       <c r="A18" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18">
         <v>208.5</v>
       </c>
       <c r="D18">
@@ -23956,7 +23969,7 @@
       <c r="A19" s="38">
         <v>45247</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19">
         <v>131</v>
       </c>
       <c r="D19">
@@ -23968,7 +23981,7 @@
       <c r="A20" s="38">
         <v>45254</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20">
         <v>286</v>
       </c>
     </row>
@@ -23976,7 +23989,7 @@
       <c r="A21" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="B21" s="64">
+      <c r="B21">
         <v>135.5</v>
       </c>
     </row>
@@ -23984,7 +23997,7 @@
       <c r="A22" s="38">
         <v>45248</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22">
         <v>122.5</v>
       </c>
     </row>
@@ -23992,7 +24005,7 @@
       <c r="A23" s="38">
         <v>45255</v>
       </c>
-      <c r="B23" s="64">
+      <c r="B23">
         <v>148.5</v>
       </c>
     </row>
@@ -24000,7 +24013,7 @@
       <c r="A24" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24">
         <v>206.75</v>
       </c>
     </row>
@@ -24008,7 +24021,7 @@
       <c r="A25" s="38">
         <v>45249</v>
       </c>
-      <c r="B25" s="64">
+      <c r="B25">
         <v>176</v>
       </c>
     </row>
@@ -24016,7 +24029,7 @@
       <c r="A26" s="38">
         <v>45256</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26">
         <v>237.5</v>
       </c>
     </row>
@@ -24024,7 +24037,7 @@
       <c r="A27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="64">
+      <c r="B27">
         <v>163.56666666666666</v>
       </c>
     </row>
@@ -24032,7 +24045,7 @@
       <c r="A28" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28">
         <v>106.33333333333333</v>
       </c>
     </row>
@@ -24040,7 +24053,7 @@
       <c r="A29" s="38">
         <v>45243</v>
       </c>
-      <c r="B29" s="64">
+      <c r="B29">
         <v>108</v>
       </c>
     </row>
@@ -24048,7 +24061,7 @@
       <c r="A30" s="38">
         <v>45250</v>
       </c>
-      <c r="B30" s="64">
+      <c r="B30">
         <v>75</v>
       </c>
     </row>
@@ -24056,7 +24069,7 @@
       <c r="A31" s="38">
         <v>45257</v>
       </c>
-      <c r="B31" s="64">
+      <c r="B31">
         <v>136</v>
       </c>
     </row>
@@ -24064,7 +24077,7 @@
       <c r="A32" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B32" s="64">
+      <c r="B32">
         <v>127</v>
       </c>
     </row>
@@ -24072,7 +24085,7 @@
       <c r="A33" s="38">
         <v>45244</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33">
         <v>230.5</v>
       </c>
     </row>
@@ -24080,7 +24093,7 @@
       <c r="A34" s="38">
         <v>45251</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34">
         <v>23.5</v>
       </c>
     </row>
@@ -24088,7 +24101,7 @@
       <c r="A35" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35">
         <v>218</v>
       </c>
     </row>
@@ -24096,7 +24109,7 @@
       <c r="A36" s="38">
         <v>45245</v>
       </c>
-      <c r="B36" s="64">
+      <c r="B36">
         <v>190.5</v>
       </c>
     </row>
@@ -24104,7 +24117,7 @@
       <c r="A37" s="38">
         <v>45252</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37">
         <v>245.5</v>
       </c>
     </row>
@@ -24112,7 +24125,7 @@
       <c r="A38" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38">
         <v>158.75</v>
       </c>
     </row>
@@ -24120,7 +24133,7 @@
       <c r="A39" s="38">
         <v>45246</v>
       </c>
-      <c r="B39" s="64">
+      <c r="B39">
         <v>112.5</v>
       </c>
     </row>
@@ -24128,7 +24141,7 @@
       <c r="A40" s="38">
         <v>45253</v>
       </c>
-      <c r="B40" s="64">
+      <c r="B40">
         <v>205</v>
       </c>
     </row>
@@ -24136,7 +24149,7 @@
       <c r="A41" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B41" s="64">
+      <c r="B41">
         <v>271.25</v>
       </c>
     </row>
@@ -24144,7 +24157,7 @@
       <c r="A42" s="38">
         <v>45247</v>
       </c>
-      <c r="B42" s="64">
+      <c r="B42">
         <v>228</v>
       </c>
     </row>
@@ -24152,7 +24165,7 @@
       <c r="A43" s="38">
         <v>45254</v>
       </c>
-      <c r="B43" s="64">
+      <c r="B43">
         <v>314.5</v>
       </c>
     </row>
@@ -24160,7 +24173,7 @@
       <c r="A44" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="B44" s="64">
+      <c r="B44">
         <v>158.5</v>
       </c>
     </row>
@@ -24168,7 +24181,7 @@
       <c r="A45" s="38">
         <v>45248</v>
       </c>
-      <c r="B45" s="64">
+      <c r="B45">
         <v>42</v>
       </c>
     </row>
@@ -24176,7 +24189,7 @@
       <c r="A46" s="38">
         <v>45255</v>
       </c>
-      <c r="B46" s="64">
+      <c r="B46">
         <v>275</v>
       </c>
     </row>
@@ -24184,7 +24197,7 @@
       <c r="A47" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="B47" s="64">
+      <c r="B47">
         <v>133.75</v>
       </c>
     </row>
@@ -24192,7 +24205,7 @@
       <c r="A48" s="38">
         <v>45249</v>
       </c>
-      <c r="B48" s="64">
+      <c r="B48">
         <v>213</v>
       </c>
     </row>
@@ -24200,7 +24213,7 @@
       <c r="A49" s="38">
         <v>45256</v>
       </c>
-      <c r="B49" s="64">
+      <c r="B49">
         <v>54.5</v>
       </c>
     </row>
@@ -24208,7 +24221,7 @@
       <c r="A50" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="64">
+      <c r="B50">
         <v>217.26666666666668</v>
       </c>
     </row>
@@ -24216,7 +24229,7 @@
       <c r="A51" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="B51" s="64">
+      <c r="B51">
         <v>192.16666666666666</v>
       </c>
     </row>
@@ -24224,7 +24237,7 @@
       <c r="A52" s="38">
         <v>45243</v>
       </c>
-      <c r="B52" s="64">
+      <c r="B52">
         <v>112.5</v>
       </c>
       <c r="C52">
@@ -24236,7 +24249,7 @@
       <c r="A53" s="38">
         <v>45250</v>
       </c>
-      <c r="B53" s="64">
+      <c r="B53">
         <v>202.5</v>
       </c>
       <c r="C53">
@@ -24248,7 +24261,7 @@
       <c r="A54" s="38">
         <v>45257</v>
       </c>
-      <c r="B54" s="64">
+      <c r="B54">
         <v>261.5</v>
       </c>
       <c r="C54">
@@ -24260,7 +24273,7 @@
       <c r="A55" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B55" s="64">
+      <c r="B55">
         <v>199</v>
       </c>
     </row>
@@ -24268,7 +24281,7 @@
       <c r="A56" s="38">
         <v>45244</v>
       </c>
-      <c r="B56" s="64">
+      <c r="B56">
         <v>171.5</v>
       </c>
     </row>
@@ -24276,7 +24289,7 @@
       <c r="A57" s="38">
         <v>45251</v>
       </c>
-      <c r="B57" s="64">
+      <c r="B57">
         <v>226.5</v>
       </c>
     </row>
@@ -24284,7 +24297,7 @@
       <c r="A58" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="B58" s="64">
+      <c r="B58">
         <v>274.5</v>
       </c>
     </row>
@@ -24292,7 +24305,7 @@
       <c r="A59" s="38">
         <v>45245</v>
       </c>
-      <c r="B59" s="64">
+      <c r="B59">
         <v>310.5</v>
       </c>
     </row>
@@ -24300,7 +24313,7 @@
       <c r="A60" s="38">
         <v>45252</v>
       </c>
-      <c r="B60" s="64">
+      <c r="B60">
         <v>238.5</v>
       </c>
     </row>
@@ -24308,7 +24321,7 @@
       <c r="A61" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B61" s="64">
+      <c r="B61">
         <v>178.25</v>
       </c>
     </row>
@@ -24316,7 +24329,7 @@
       <c r="A62" s="38">
         <v>45246</v>
       </c>
-      <c r="B62" s="64">
+      <c r="B62">
         <v>154</v>
       </c>
     </row>
@@ -24324,7 +24337,7 @@
       <c r="A63" s="38">
         <v>45253</v>
       </c>
-      <c r="B63" s="64">
+      <c r="B63">
         <v>202.5</v>
       </c>
     </row>
@@ -24332,7 +24345,7 @@
       <c r="A64" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B64" s="64">
+      <c r="B64">
         <v>170.75</v>
       </c>
     </row>
@@ -24340,7 +24353,7 @@
       <c r="A65" s="38">
         <v>45247</v>
       </c>
-      <c r="B65" s="64">
+      <c r="B65">
         <v>107</v>
       </c>
     </row>
@@ -24348,7 +24361,7 @@
       <c r="A66" s="38">
         <v>45254</v>
       </c>
-      <c r="B66" s="64">
+      <c r="B66">
         <v>234.5</v>
       </c>
     </row>
@@ -24356,7 +24369,7 @@
       <c r="A67" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="B67" s="64">
+      <c r="B67">
         <v>223.25</v>
       </c>
     </row>
@@ -24364,7 +24377,7 @@
       <c r="A68" s="38">
         <v>45248</v>
       </c>
-      <c r="B68" s="64">
+      <c r="B68">
         <v>241</v>
       </c>
     </row>
@@ -24372,7 +24385,7 @@
       <c r="A69" s="38">
         <v>45255</v>
       </c>
-      <c r="B69" s="64">
+      <c r="B69">
         <v>205.5</v>
       </c>
     </row>
@@ -24380,7 +24393,7 @@
       <c r="A70" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="B70" s="64">
+      <c r="B70">
         <v>295.5</v>
       </c>
     </row>
@@ -24388,7 +24401,7 @@
       <c r="A71" s="38">
         <v>45249</v>
       </c>
-      <c r="B71" s="64">
+      <c r="B71">
         <v>302.5</v>
       </c>
     </row>
@@ -24396,7 +24409,7 @@
       <c r="A72" s="38">
         <v>45256</v>
       </c>
-      <c r="B72" s="64">
+      <c r="B72">
         <v>288.5</v>
       </c>
     </row>
@@ -24404,7 +24417,7 @@
       <c r="A73" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="64">
+      <c r="B73">
         <v>190.96666666666667</v>
       </c>
     </row>
@@ -24412,7 +24425,7 @@
       <c r="A74" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="B74" s="64">
+      <c r="B74">
         <v>244</v>
       </c>
     </row>
@@ -24420,7 +24433,7 @@
       <c r="A75" s="38">
         <v>45243</v>
       </c>
-      <c r="B75" s="64">
+      <c r="B75">
         <v>223</v>
       </c>
       <c r="C75">
@@ -24436,7 +24449,7 @@
       <c r="A76" s="38">
         <v>45250</v>
       </c>
-      <c r="B76" s="64">
+      <c r="B76">
         <v>289.5</v>
       </c>
       <c r="C76">
@@ -24452,7 +24465,7 @@
       <c r="A77" s="38">
         <v>45257</v>
       </c>
-      <c r="B77" s="64">
+      <c r="B77">
         <v>219.5</v>
       </c>
       <c r="C77">
@@ -24468,7 +24481,7 @@
       <c r="A78" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B78" s="64">
+      <c r="B78">
         <v>170.5</v>
       </c>
       <c r="E78">
@@ -24480,7 +24493,7 @@
       <c r="A79" s="38">
         <v>45244</v>
       </c>
-      <c r="B79" s="64">
+      <c r="B79">
         <v>118</v>
       </c>
     </row>
@@ -24488,7 +24501,7 @@
       <c r="A80" s="38">
         <v>45251</v>
       </c>
-      <c r="B80" s="64">
+      <c r="B80">
         <v>223</v>
       </c>
     </row>
@@ -24496,7 +24509,7 @@
       <c r="A81" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="B81" s="64">
+      <c r="B81">
         <v>189.5</v>
       </c>
     </row>
@@ -24504,7 +24517,7 @@
       <c r="A82" s="38">
         <v>45245</v>
       </c>
-      <c r="B82" s="64">
+      <c r="B82">
         <v>124.5</v>
       </c>
     </row>
@@ -24512,7 +24525,7 @@
       <c r="A83" s="38">
         <v>45252</v>
       </c>
-      <c r="B83" s="64">
+      <c r="B83">
         <v>254.5</v>
       </c>
       <c r="G83" t="s">
@@ -24523,7 +24536,7 @@
       <c r="A84" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B84" s="64">
+      <c r="B84">
         <v>225.75</v>
       </c>
     </row>
@@ -24531,7 +24544,7 @@
       <c r="A85" s="38">
         <v>45246</v>
       </c>
-      <c r="B85" s="64">
+      <c r="B85">
         <v>276.5</v>
       </c>
     </row>
@@ -24539,7 +24552,7 @@
       <c r="A86" s="38">
         <v>45253</v>
       </c>
-      <c r="B86" s="64">
+      <c r="B86">
         <v>175</v>
       </c>
     </row>
@@ -24547,7 +24560,7 @@
       <c r="A87" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B87" s="64">
+      <c r="B87">
         <v>143.5</v>
       </c>
     </row>
@@ -24555,7 +24568,7 @@
       <c r="A88" s="38">
         <v>45247</v>
       </c>
-      <c r="B88" s="64">
+      <c r="B88">
         <v>173.5</v>
       </c>
     </row>
@@ -24563,7 +24576,7 @@
       <c r="A89" s="38">
         <v>45254</v>
       </c>
-      <c r="B89" s="64">
+      <c r="B89">
         <v>113.5</v>
       </c>
     </row>
@@ -24571,7 +24584,7 @@
       <c r="A90" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="64">
+      <c r="B90">
         <v>190.75</v>
       </c>
     </row>
@@ -24579,7 +24592,7 @@
       <c r="A91" s="38">
         <v>45248</v>
       </c>
-      <c r="B91" s="64">
+      <c r="B91">
         <v>185</v>
       </c>
     </row>
@@ -24587,7 +24600,7 @@
       <c r="A92" s="38">
         <v>45255</v>
       </c>
-      <c r="B92" s="64">
+      <c r="B92">
         <v>196.5</v>
       </c>
     </row>
@@ -24595,7 +24608,7 @@
       <c r="A93" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="B93" s="64">
+      <c r="B93">
         <v>146.25</v>
       </c>
     </row>
@@ -24603,7 +24616,7 @@
       <c r="A94" s="38">
         <v>45249</v>
       </c>
-      <c r="B94" s="64">
+      <c r="B94">
         <v>181.5</v>
       </c>
     </row>
@@ -24611,7 +24624,7 @@
       <c r="A95" s="38">
         <v>45256</v>
       </c>
-      <c r="B95" s="64">
+      <c r="B95">
         <v>111</v>
       </c>
     </row>
@@ -24619,7 +24632,7 @@
       <c r="A96" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="64">
+      <c r="B96">
         <v>190.26666666666668</v>
       </c>
     </row>
@@ -24627,7 +24640,7 @@
       <c r="A97" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="B97" s="64">
+      <c r="B97">
         <v>171.5</v>
       </c>
     </row>
@@ -24635,7 +24648,7 @@
       <c r="A98" s="38">
         <v>45243</v>
       </c>
-      <c r="B98" s="64">
+      <c r="B98">
         <v>148</v>
       </c>
       <c r="C98">
@@ -24647,7 +24660,7 @@
       <c r="A99" s="38">
         <v>45250</v>
       </c>
-      <c r="B99" s="64">
+      <c r="B99">
         <v>97.5</v>
       </c>
       <c r="C99">
@@ -24659,7 +24672,7 @@
       <c r="A100" s="38">
         <v>45257</v>
       </c>
-      <c r="B100" s="64">
+      <c r="B100">
         <v>269</v>
       </c>
       <c r="C100">
@@ -24671,7 +24684,7 @@
       <c r="A101" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B101" s="64">
+      <c r="B101">
         <v>149</v>
       </c>
     </row>
@@ -24679,7 +24692,7 @@
       <c r="A102" s="38">
         <v>45244</v>
       </c>
-      <c r="B102" s="64">
+      <c r="B102">
         <v>148</v>
       </c>
     </row>
@@ -24687,7 +24700,7 @@
       <c r="A103" s="38">
         <v>45251</v>
       </c>
-      <c r="B103" s="64">
+      <c r="B103">
         <v>150</v>
       </c>
     </row>
@@ -24695,7 +24708,7 @@
       <c r="A104" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="B104" s="64">
+      <c r="B104">
         <v>225.5</v>
       </c>
     </row>
@@ -24703,7 +24716,7 @@
       <c r="A105" s="38">
         <v>45245</v>
       </c>
-      <c r="B105" s="64">
+      <c r="B105">
         <v>155</v>
       </c>
     </row>
@@ -24711,7 +24724,7 @@
       <c r="A106" s="38">
         <v>45252</v>
       </c>
-      <c r="B106" s="64">
+      <c r="B106">
         <v>296</v>
       </c>
     </row>
@@ -24719,7 +24732,7 @@
       <c r="A107" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B107" s="64">
+      <c r="B107">
         <v>251</v>
       </c>
     </row>
@@ -24727,7 +24740,7 @@
       <c r="A108" s="38">
         <v>45246</v>
       </c>
-      <c r="B108" s="64">
+      <c r="B108">
         <v>261.5</v>
       </c>
     </row>
@@ -24735,7 +24748,7 @@
       <c r="A109" s="38">
         <v>45253</v>
       </c>
-      <c r="B109" s="64">
+      <c r="B109">
         <v>240.5</v>
       </c>
     </row>
@@ -24743,7 +24756,7 @@
       <c r="A110" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B110" s="64">
+      <c r="B110">
         <v>151</v>
       </c>
     </row>
@@ -24751,7 +24764,7 @@
       <c r="A111" s="38">
         <v>45247</v>
       </c>
-      <c r="B111" s="64">
+      <c r="B111">
         <v>216.5</v>
       </c>
     </row>
@@ -24759,7 +24772,7 @@
       <c r="A112" s="38">
         <v>45254</v>
       </c>
-      <c r="B112" s="64">
+      <c r="B112">
         <v>85.5</v>
       </c>
     </row>
@@ -24767,7 +24780,7 @@
       <c r="A113" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="B113" s="64">
+      <c r="B113">
         <v>107</v>
       </c>
     </row>
@@ -24775,7 +24788,7 @@
       <c r="A114" s="38">
         <v>45248</v>
       </c>
-      <c r="B114" s="64">
+      <c r="B114">
         <v>153</v>
       </c>
     </row>
@@ -24783,7 +24796,7 @@
       <c r="A115" s="38">
         <v>45255</v>
       </c>
-      <c r="B115" s="64">
+      <c r="B115">
         <v>61</v>
       </c>
     </row>
@@ -24791,7 +24804,7 @@
       <c r="A116" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="B116" s="64">
+      <c r="B116">
         <v>286.25</v>
       </c>
     </row>
@@ -24799,7 +24812,7 @@
       <c r="A117" s="38">
         <v>45249</v>
       </c>
-      <c r="B117" s="64">
+      <c r="B117">
         <v>285</v>
       </c>
     </row>
@@ -24807,7 +24820,7 @@
       <c r="A118" s="38">
         <v>45256</v>
       </c>
-      <c r="B118" s="64">
+      <c r="B118">
         <v>287.5</v>
       </c>
     </row>
@@ -24815,7 +24828,7 @@
       <c r="A119" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="B119" s="64">
+      <c r="B119">
         <v>189.54</v>
       </c>
     </row>
